--- a/Deliverable #1/3. Gantt Chart/iNFT Gantt Chart.xlsx
+++ b/Deliverable #1/3. Gantt Chart/iNFT Gantt Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jason Howse\Documents\College\Masters Classes\CSC478 - Software Engineering Capstone\Group Project Information and Assignments\Project Documentation\Deliverable #1\3. Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911F0811-38EF-474E-A495-4EE40E1B6C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23BB6B-6D55-488B-943B-2338587C8F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="270" windowWidth="25635" windowHeight="15120" xr2:uid="{16582650-E5DE-4BDD-B4B6-3D276CD67CF9}"/>
+    <workbookView xWindow="-13068" yWindow="-10380" windowWidth="13176" windowHeight="23256" xr2:uid="{16582650-E5DE-4BDD-B4B6-3D276CD67CF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -171,14 +171,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1776,293 +1793,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652D6AAE-CF10-4577-B6EC-E3736B1E293D}">
-  <dimension ref="A2:XFD27"/>
+  <dimension ref="A2:XFD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A2" sqref="A2:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>44446</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <f>D3-B3</f>
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>44471</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>44454</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <f>D4-B4</f>
         <v>7</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>44461</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>44450</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <f>D5-B5</f>
         <v>81</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>44531</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>44450</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <f t="shared" ref="C6" si="0">D6-B6</f>
         <v>30</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>44480</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>44468</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>44474</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="4">
         <v>44468</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>44474</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="4">
         <v>44474</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>44482</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="4">
         <v>44477</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4">
         <v>44481</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="4">
         <v>44482</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <f>D11-B11</f>
         <v>40</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>44522</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="4">
         <v>44494</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <f t="shared" ref="C12:C20" si="1">D12-B12</f>
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>44502</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="4">
         <v>44518</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>44526</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="4">
         <v>44476</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>44531</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="4">
         <v>44486</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>44494</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="4">
         <v>44488</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>44499</v>
       </c>
     </row>
-    <row r="17" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:16384" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="4">
         <v>44497</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>44522</v>
       </c>
     </row>
-    <row r="18" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:16384" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="4">
         <v>44497</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>44522</v>
       </c>
     </row>
-    <row r="19" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:16384" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="4">
         <v>44515</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>44534</v>
       </c>
     </row>
-    <row r="20" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="1">
-        <v>44527</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44527</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>44530</v>
       </c>
       <c r="E20"/>
@@ -55202,18 +55220,18 @@
         <v>44530</v>
       </c>
     </row>
-    <row r="21" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="4">
         <v>44518</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <f t="shared" ref="C21" si="258">D21-B21</f>
         <v>13</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>44531</v>
       </c>
       <c r="E21"/>
@@ -63407,18 +63425,18 @@
       <c r="XFA21"/>
       <c r="XFC21"/>
     </row>
-    <row r="22" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="4">
         <v>44518</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <f t="shared" ref="C22" si="259">D22-B22</f>
         <v>8</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>44526</v>
       </c>
       <c r="E22"/>
@@ -71612,18 +71630,18 @@
       <c r="XFA22"/>
       <c r="XFC22"/>
     </row>
-    <row r="23" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="4">
         <v>44531</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <f t="shared" ref="C23:C24" si="260">D23-B23</f>
         <v>3</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>44534</v>
       </c>
       <c r="E23"/>
@@ -79817,18 +79835,18 @@
       <c r="XFA23"/>
       <c r="XFC23"/>
     </row>
-    <row r="24" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>44518</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <f t="shared" si="260"/>
         <v>16</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>44534</v>
       </c>
       <c r="E24"/>
@@ -88022,18 +88040,6 @@
       <c r="XFA24"/>
       <c r="XFC24"/>
     </row>
-    <row r="25" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:16384" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -88049,9 +88055,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -88059,7 +88065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -88070,7 +88076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -88081,7 +88087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -88092,7 +88098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -88103,7 +88109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -88114,7 +88120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -88125,7 +88131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -88136,7 +88142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>

--- a/Deliverable #1/3. Gantt Chart/iNFT Gantt Chart.xlsx
+++ b/Deliverable #1/3. Gantt Chart/iNFT Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jason Howse\Documents\College\Masters Classes\CSC478 - Software Engineering Capstone\Group Project Information and Assignments\Project Documentation\Deliverable #1\3. Gantt Chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C23BB6B-6D55-488B-943B-2338587C8F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94C0A15-46D4-48D9-AA2F-5D9A9290B815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-13068" yWindow="-10380" windowWidth="13176" windowHeight="23256" xr2:uid="{16582650-E5DE-4BDD-B4B6-3D276CD67CF9}"/>
   </bookViews>
@@ -834,7 +834,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="4200000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1795,8 +1795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652D6AAE-CF10-4577-B6EC-E3736B1E293D}">
   <dimension ref="A2:XFD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
